--- a/code-note/其他记录信息.xlsx
+++ b/code-note/其他记录信息.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>1.Dynamic Tracing Tools for Linux Performance Monitoring</t>
   </si>
@@ -62,18 +62,42 @@
     <t>The Apache JMeter™ application is open source software, a 100% pure Java application designed to load test functional behavior and measure performance. It was originally designed for testing Web Applications but has since expanded to other test functions.</t>
   </si>
   <si>
+    <t>7.VM options</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.JMeter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.RedisLive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">10.Arthas </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://skywalking.apache.org/</t>
+  </si>
+  <si>
+    <t>11.Apache SkyWalking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application performance monitor tool for distributed systems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arthas.aliyun.com/en-us/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java Diagnostic Tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Visualize your redis instances, analyze query patterns and spikes.</t>
-  </si>
-  <si>
-    <t>7.VM options</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.JMeter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.RedisLive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +123,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -124,12 +164,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,9 +189,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -457,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -519,38 +573,72 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="67.5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="40.5">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="40.5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A32" r:id="rId1"/>
+    <hyperlink ref="A36" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
